--- a/biology/Botanique/Carie_(pathologie_végétale)/Carie_(pathologie_végétale).xlsx
+++ b/biology/Botanique/Carie_(pathologie_végétale)/Carie_(pathologie_végétale).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carie_(pathologie_v%C3%A9g%C3%A9tale)</t>
+          <t>Carie_(pathologie_végétale)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En pathologie végétale, on appelle « carie » diverses maladies fongiques (causées par des champignons). C'est un symptôme qui est dû à des attaques d'espèces pouvant appartenir à des groupes très différents. L'intérieur de l'organe attaqué est gâté et transformé en une masse pulvérulente, d'où l'analogie avec une carie dentaire. Les symptômes où l'organe attaqué est complètement remplacé par une masse pulvérulente sont regroupés sous le terme de charbon.
 Parmi les caries on trouve notamment :
@@ -496,7 +508,7 @@
 carie de l'épicéa, causée par Bjerkandera adusta ;
 carie rouge du sapin, causée par Stereum sanguinolentum ;
 les caries des épis de céréales, dues à des espèces du genre Tilletia :
-carie du blé (en), carie du blé, ou carie lisse du blé, ou carie commune du blé, ou TCK (Tilletia controversa Kühn[1]), causée par Tilletia foetida ou Tilletia caries ;
+carie du blé (en), carie du blé, ou carie lisse du blé, ou carie commune du blé, ou TCK (Tilletia controversa Kühn), causée par Tilletia foetida ou Tilletia caries ;
 carie de Karnal, causée par Tilletia indica ;
 carie de l'orge, causée par Tilletia pancicii ;
 carie double ou carie ordinaire du blé, causée par Tilletia tritici ;
